--- a/7/2/2/2/2/Gobierno general 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/Gobierno general 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Serie</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7185,13 +7188,13 @@
         <v>101</v>
       </c>
       <c r="B74">
-        <v>1144</v>
+        <v>1419</v>
       </c>
       <c r="C74">
-        <v>-191</v>
+        <v>-184</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>-198</v>
@@ -7206,13 +7209,13 @@
         <v>172</v>
       </c>
       <c r="I74">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J74">
         <v>111</v>
       </c>
       <c r="K74">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L74">
         <v>-210</v>
@@ -7233,13 +7236,13 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>636</v>
+        <v>893</v>
       </c>
       <c r="S74">
-        <v>-1044</v>
+        <v>-802</v>
       </c>
       <c r="T74">
-        <v>2188</v>
+        <v>2221</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -7257,16 +7260,105 @@
         <v>1366</v>
       </c>
       <c r="Z74">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="AC74">
-        <v>803</v>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>795</v>
+      </c>
+      <c r="D75">
+        <v>609</v>
+      </c>
+      <c r="E75">
+        <v>187</v>
+      </c>
+      <c r="F75">
+        <v>-2685</v>
+      </c>
+      <c r="G75">
+        <v>-3024</v>
+      </c>
+      <c r="H75">
+        <v>340</v>
+      </c>
+      <c r="I75">
+        <v>1375</v>
+      </c>
+      <c r="J75">
+        <v>684</v>
+      </c>
+      <c r="K75">
+        <v>690</v>
+      </c>
+      <c r="L75">
+        <v>-325</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>-327</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>-1</v>
+      </c>
+      <c r="Q75">
+        <v>-1</v>
+      </c>
+      <c r="R75">
+        <v>915</v>
+      </c>
+      <c r="S75">
+        <v>-5026</v>
+      </c>
+      <c r="T75">
+        <v>5101</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>3714</v>
+      </c>
+      <c r="X75">
+        <v>800</v>
+      </c>
+      <c r="Y75">
+        <v>2914</v>
+      </c>
+      <c r="Z75">
+        <v>-21</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>-21</v>
+      </c>
+      <c r="AC75">
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
